--- a/ReadingData/TestData.xlsx
+++ b/ReadingData/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Suite_Classes" sheetId="1" r:id="rId1"/>
@@ -106,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +274,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +326,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,20 +519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -510,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -521,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -532,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -550,21 +594,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -575,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -596,14 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -612,7 +656,7 @@
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -629,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -646,7 +690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -669,14 +713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
